--- a/tests/data/desired/summaryreport.xlsx
+++ b/tests/data/desired/summaryreport.xlsx
@@ -15,13 +15,13 @@
     <sheet name="rcomp" r:id="rId9" sheetId="7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">left!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">right!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">inner!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">complement!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">lcomp!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">rcomp!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">left!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">right!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">inner!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">complement!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">lcomp!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">rcomp!$A$1:$C$9</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -102,10 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -120,6 +121,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,6 +135,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -143,6 +150,9 @@
       <c r="B2" t="n">
         <v>140.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.14014014014014015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -153,6 +163,9 @@
       <c r="B3" t="n">
         <v>960.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.960960960960961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -163,6 +176,9 @@
       <c r="B4" t="n">
         <v>859.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>0.8598598598598599</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -173,6 +189,9 @@
       <c r="B5" t="n">
         <v>999.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -183,6 +202,9 @@
       <c r="B6" t="n">
         <v>967.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.9679679679679679</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -193,6 +215,9 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>0.007238883143743537</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -203,6 +228,9 @@
       <c r="B8" t="n">
         <v>992.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>0.992992992992993</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -213,9 +241,12 @@
       <c r="B9" t="n">
         <v>32.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>0.03225806451612903</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -230,6 +261,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -243,6 +275,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -253,6 +290,9 @@
       <c r="B2" t="n">
         <v>140.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.14477766287487073</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -263,6 +303,9 @@
       <c r="B3" t="n">
         <v>960.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.9927611168562565</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -273,6 +316,9 @@
       <c r="B4" t="n">
         <v>827.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>0.8552223371251293</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -283,6 +329,9 @@
       <c r="B5" t="n">
         <v>967.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -293,6 +342,9 @@
       <c r="B6" t="n">
         <v>967.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -303,6 +355,9 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>0.007238883143743537</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -313,6 +368,9 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>0.9927611168562565</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -323,9 +381,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -340,6 +401,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -353,6 +415,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -363,6 +430,9 @@
       <c r="B2" t="n">
         <v>140.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.14112903225806453</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -373,6 +443,9 @@
       <c r="B3" t="n">
         <v>960.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.967741935483871</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -383,6 +456,9 @@
       <c r="B4" t="n">
         <v>852.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>0.8588709677419355</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -393,6 +469,9 @@
       <c r="B5" t="n">
         <v>992.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -403,6 +482,9 @@
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.967741935483871</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -413,6 +495,9 @@
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -423,6 +508,9 @@
       <c r="B8" t="n">
         <v>992.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -433,9 +521,12 @@
       <c r="B9" t="n">
         <v>32.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>0.03225806451612903</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -450,6 +541,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,6 +555,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -471,7 +568,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>960.0</v>
+        <v>140.0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -483,6 +583,9 @@
       <c r="B3" t="n">
         <v>960.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -491,7 +594,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>820.0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -503,6 +609,9 @@
       <c r="B5" t="n">
         <v>960.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -513,6 +622,9 @@
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -523,6 +635,9 @@
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -533,6 +648,9 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -543,9 +661,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -560,6 +681,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,6 +695,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -583,6 +710,9 @@
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -593,6 +723,9 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -603,6 +736,9 @@
       <c r="B4" t="n">
         <v>39.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -613,6 +749,9 @@
       <c r="B5" t="n">
         <v>39.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -623,6 +762,9 @@
       <c r="B6" t="n">
         <v>7.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.1794871794871795</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -633,6 +775,9 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -643,6 +788,9 @@
       <c r="B8" t="n">
         <v>32.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -653,9 +801,12 @@
       <c r="B9" t="n">
         <v>32.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -670,6 +821,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -683,6 +835,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -693,6 +850,9 @@
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -703,6 +863,9 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -713,6 +876,9 @@
       <c r="B4" t="n">
         <v>7.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -723,6 +889,9 @@
       <c r="B5" t="n">
         <v>7.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -733,6 +902,9 @@
       <c r="B6" t="n">
         <v>7.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -743,6 +915,9 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -753,6 +928,9 @@
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -763,9 +941,14 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>&lt;NaN&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -780,6 +963,7 @@
   <cols>
     <col min="1" max="1" width="35.66015625" customWidth="true"/>
     <col min="2" max="2" width="10.32421875" customWidth="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -793,6 +977,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -803,6 +992,9 @@
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -813,6 +1005,9 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -823,6 +1018,9 @@
       <c r="B4" t="n">
         <v>32.0</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -833,6 +1031,9 @@
       <c r="B5" t="n">
         <v>32.0</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -843,6 +1044,9 @@
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -853,6 +1057,11 @@
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>&lt;NaN&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -863,6 +1072,9 @@
       <c r="B8" t="n">
         <v>32.0</v>
       </c>
+      <c r="C8" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -873,9 +1085,12 @@
       <c r="B9" t="n">
         <v>32.0</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:C9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/summaryreport.xlsx
+++ b/tests/data/desired/summaryreport.xlsx
@@ -148,10 +148,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.0</v>
+        <v>604.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.14014014014014015</v>
+        <v>0.6046046046046046</v>
       </c>
     </row>
     <row r="3">
@@ -174,10 +174,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859.0</v>
+        <v>395.0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.8598598598598599</v>
+        <v>0.3953953953953954</v>
       </c>
     </row>
     <row r="5">
@@ -288,10 +288,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.0</v>
+        <v>604.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.14477766287487073</v>
+        <v>0.6246122026887281</v>
       </c>
     </row>
     <row r="3">
@@ -314,10 +314,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.0</v>
+        <v>363.0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.8552223371251293</v>
+        <v>0.375387797311272</v>
       </c>
     </row>
     <row r="5">
@@ -428,10 +428,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.0</v>
+        <v>604.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.14112903225806453</v>
+        <v>0.6088709677419355</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>852.0</v>
+        <v>388.0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.8588709677419355</v>
+        <v>0.3911290322580645</v>
       </c>
     </row>
     <row r="5">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.0</v>
+        <v>604.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.14583333333333334</v>
+        <v>0.6291666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.0</v>
+        <v>356.0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="5">

--- a/tests/data/desired/summaryreport.xlsx
+++ b/tests/data/desired/summaryreport.xlsx
@@ -15,13 +15,13 @@
     <sheet name="rcomp" r:id="rId9" sheetId="7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">left!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">right!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">inner!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">complement!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">lcomp!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">rcomp!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">left!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">right!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">inner!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">complement!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">lcomp!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">rcomp!$A$1:$C$12</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -144,27 +144,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.0</v>
+        <v>999.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.6046046046046046</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>960.0</v>
+        <v>604.0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.960960960960961</v>
+        <v>0.6046046046046046</v>
       </c>
     </row>
     <row r="4">
@@ -183,70 +183,109 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.0</v>
+        <v>960.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.960960960960961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.0</v>
+        <v>960.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.9679679679679679</v>
+        <v>0.03903903903903904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>967.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.007238883143743537</v>
+        <v>0.9679679679679679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>992.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.992992992992993</v>
+        <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.007238883143743537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.992992992992993</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -284,27 +323,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.0</v>
+        <v>967.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.6246122026887281</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>960.0</v>
+        <v>604.0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.9927611168562565</v>
+        <v>0.6246122026887281</v>
       </c>
     </row>
     <row r="4">
@@ -323,50 +362,50 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>967.0</v>
+        <v>960.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.0</v>
+        <v>960.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1.0</v>
+        <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>967.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.007238883143743537</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -375,18 +414,57 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.007238883143743537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.9927611168562565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -424,27 +502,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.0</v>
+        <v>992.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.6088709677419355</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>960.0</v>
+        <v>604.0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.967741935483871</v>
+        <v>0.6088709677419355</v>
       </c>
     </row>
     <row r="4">
@@ -463,50 +541,50 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>992.0</v>
+        <v>960.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.967741935483871</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.0</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>992.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.0</v>
@@ -515,18 +593,57 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -564,27 +681,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.0</v>
+        <v>960.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.6291666666666667</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>960.0</v>
+        <v>604.0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1.0</v>
+        <v>0.6291666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +720,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -616,37 +733,37 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.0</v>
@@ -655,18 +772,57 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -704,20 +860,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -743,70 +899,109 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.1794871794871795</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1.0</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C12" s="3" t="n">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -844,20 +1039,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -883,24 +1078,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1.0</v>
@@ -909,7 +1104,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -922,11 +1117,11 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0</v>
@@ -935,20 +1130,61 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>&lt;NaN&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>&lt;NaN&gt;</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -986,20 +1222,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Equal Rows</t>
+          <t>Total Rows</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Matching Rows</t>
+          <t>Equal Rows</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1025,72 +1261,113 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Total Rows</t>
+          <t>Matching Rows</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Rows</t>
+          <t>Non-matching Rows</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>(Source1) - Non-matching Rows</t>
+          <t>(Source1) - Total Rows</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>&lt;NaN&gt;</t>
-        </is>
+      <c r="C7" s="3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>(Source2) - Rows</t>
+          <t>(Source1) - Matching Rows</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>&lt;NaN&gt;</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>(Source1) - Non-matching Rows</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>&lt;NaN&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Total Rows</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>(Source2) - Matching Rows</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C12" s="3" t="n">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/summaryreport.xlsx
+++ b/tests/data/desired/summaryreport.xlsx
@@ -200,7 +200,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.03903903903903904</v>
@@ -226,7 +226,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.967741935483871</v>
@@ -379,7 +379,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.007238883143743537</v>
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1.0</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960.0</v>
+        <v>32.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.03225806451612903</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.967741935483871</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.0</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1.0</v>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1.0</v>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.0</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1.0</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1.0</v>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.0</v>

--- a/tests/data/desired/summaryreport.xlsx
+++ b/tests/data/desired/summaryreport.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -46,10 +46,122 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,7 +169,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,17 +180,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -86,7 +190,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,11 +211,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -142,7 +269,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -150,12 +277,12 @@
       <c r="B2" t="n">
         <v>999.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -163,12 +290,12 @@
       <c r="B3" t="n">
         <v>604.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="6" t="n">
         <v>0.6046046046046046</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -176,12 +303,12 @@
       <c r="B4" t="n">
         <v>395.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="6" t="n">
         <v>0.3953953953953954</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -189,12 +316,12 @@
       <c r="B5" t="n">
         <v>960.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="6" t="n">
         <v>0.960960960960961</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -202,12 +329,12 @@
       <c r="B6" t="n">
         <v>39.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="6" t="n">
         <v>0.03903903903903904</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -215,12 +342,12 @@
       <c r="B7" t="n">
         <v>967.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="6" t="n">
         <v>0.9679679679679679</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -228,12 +355,12 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="6" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -241,12 +368,12 @@
       <c r="B9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="6" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -254,12 +381,12 @@
       <c r="B10" t="n">
         <v>992.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="6" t="n">
         <v>0.992992992992993</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -267,12 +394,12 @@
       <c r="B11" t="n">
         <v>960.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="6" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -280,7 +407,7 @@
       <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="6" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
@@ -304,24 +431,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -329,12 +456,12 @@
       <c r="B2" t="n">
         <v>967.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -342,12 +469,12 @@
       <c r="B3" t="n">
         <v>604.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.6246122026887281</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -355,12 +482,12 @@
       <c r="B4" t="n">
         <v>363.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="8" t="n">
         <v>0.375387797311272</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -368,12 +495,12 @@
       <c r="B5" t="n">
         <v>960.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="8" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -381,12 +508,12 @@
       <c r="B6" t="n">
         <v>7.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="8" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -394,12 +521,12 @@
       <c r="B7" t="n">
         <v>967.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -407,12 +534,12 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="8" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -420,12 +547,12 @@
       <c r="B9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="8" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -433,12 +560,12 @@
       <c r="B10" t="n">
         <v>960.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="8" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -446,12 +573,12 @@
       <c r="B11" t="n">
         <v>960.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -459,7 +586,7 @@
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -483,24 +610,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -508,12 +635,12 @@
       <c r="B2" t="n">
         <v>992.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -521,12 +648,12 @@
       <c r="B3" t="n">
         <v>604.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.6088709677419355</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -534,12 +661,12 @@
       <c r="B4" t="n">
         <v>388.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.3911290322580645</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -547,12 +674,12 @@
       <c r="B5" t="n">
         <v>960.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -560,12 +687,12 @@
       <c r="B6" t="n">
         <v>32.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -573,12 +700,12 @@
       <c r="B7" t="n">
         <v>960.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -586,12 +713,12 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -599,12 +726,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -612,12 +739,12 @@
       <c r="B10" t="n">
         <v>992.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -625,12 +752,12 @@
       <c r="B11" t="n">
         <v>960.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="10" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -638,7 +765,7 @@
       <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
@@ -662,24 +789,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -687,12 +814,12 @@
       <c r="B2" t="n">
         <v>960.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -700,12 +827,12 @@
       <c r="B3" t="n">
         <v>604.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="12" t="n">
         <v>0.6291666666666667</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -713,12 +840,12 @@
       <c r="B4" t="n">
         <v>356.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="12" t="n">
         <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -726,12 +853,12 @@
       <c r="B5" t="n">
         <v>960.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -739,12 +866,12 @@
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -752,12 +879,12 @@
       <c r="B7" t="n">
         <v>960.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -765,12 +892,12 @@
       <c r="B8" t="n">
         <v>960.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -778,12 +905,12 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -791,12 +918,12 @@
       <c r="B10" t="n">
         <v>960.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -804,12 +931,12 @@
       <c r="B11" t="n">
         <v>960.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -817,7 +944,7 @@
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -841,24 +968,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -866,12 +993,12 @@
       <c r="B2" t="n">
         <v>39.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -879,12 +1006,12 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -892,12 +1019,12 @@
       <c r="B4" t="n">
         <v>39.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -905,12 +1032,12 @@
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -918,12 +1045,12 @@
       <c r="B6" t="n">
         <v>39.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -931,12 +1058,12 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="17" t="n">
         <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -944,12 +1071,12 @@
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -957,12 +1084,12 @@
       <c r="B9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -970,12 +1097,12 @@
       <c r="B10" t="n">
         <v>32.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="17" t="n">
         <v>0.8205128205128205</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -983,12 +1110,12 @@
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -996,7 +1123,7 @@
       <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1020,24 +1147,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1045,12 +1172,12 @@
       <c r="B2" t="n">
         <v>7.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1058,12 +1185,12 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1071,12 +1198,12 @@
       <c r="B4" t="n">
         <v>7.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1084,12 +1211,12 @@
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1097,12 +1224,12 @@
       <c r="B6" t="n">
         <v>7.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1110,12 +1237,12 @@
       <c r="B7" t="n">
         <v>7.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1123,12 +1250,12 @@
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="18" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1136,12 +1263,12 @@
       <c r="B9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="18" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1149,12 +1276,12 @@
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1162,14 +1289,14 @@
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="19" t="inlineStr">
         <is>
           <t>&lt;NaN&gt;</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1177,7 +1304,7 @@
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="19" t="inlineStr">
         <is>
           <t>&lt;NaN&gt;</t>
         </is>
@@ -1203,24 +1330,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1228,12 +1355,12 @@
       <c r="B2" t="n">
         <v>32.0</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="20" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1241,12 +1368,12 @@
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1254,12 +1381,12 @@
       <c r="B4" t="n">
         <v>32.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="20" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1267,12 +1394,12 @@
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1280,12 +1407,12 @@
       <c r="B6" t="n">
         <v>32.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="20" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1293,12 +1420,12 @@
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1306,14 +1433,14 @@
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="21" t="inlineStr">
         <is>
           <t>&lt;NaN&gt;</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="20" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1321,14 +1448,14 @@
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>&lt;NaN&gt;</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1336,12 +1463,12 @@
       <c r="B10" t="n">
         <v>32.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="20" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1349,12 +1476,12 @@
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1362,7 +1489,7 @@
       <c r="B12" t="n">
         <v>32.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="21" t="n">
         <v>1.0</v>
       </c>
     </row>
